--- a/employee_data.xlsx
+++ b/employee_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,6 +727,3954 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Kampai KLCC</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fine Dining</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>· Lot 139, First Floor, Park Side</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kampai+KLCC/data=!4m7!3m6!1s0x31cc3715b578e26b:0x102147958a342dbc!8m2!3d3.157223!4d101.7131014!16s%2Fg%2F11lcktgbs5!19sChIJa-J4tRU3zDERvC00ipVHIRA?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>619</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Irama Dining Kuala Lumpur</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Malaysian</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>· No 66-68, Lot 2, Lorong Raja Chulan</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Irama+Dining+Kuala+Lumpur/data=!4m7!3m6!1s0x31cc491cf81fb4f1:0xb4bf5c176fee2f0a!8m2!3d3.150514!4d101.704334!16s%2Fg%2F11tf12n2jn!19sChIJ8bQf-BxJzDERCi_ubxdcv7Q?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>815</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Makan Kitchen • DoubleTree by Hilton Kuala Lumpur</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>· $$$</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>· Level 11, Makan Kitchen, DoubleTree by Hilton, The Intermark, 348, Jln Tun Razak</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Makan+Kitchen+%E2%80%A2+DoubleTree+by+Hilton+Kuala+Lumpur/data=!4m7!3m6!1s0x31cc37c56778d91b:0x36107c73a41b4799!8m2!3d3.1608817!4d101.7202951!16s%2Fg%2F1td6pq_h!19sChIJG9l4Z8U3zDERmUcbpHN8EDY?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1,648</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Reuben's KL</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Reuben%27s+KL/data=!4m7!3m6!1s0x31cc37db0ee14ba5:0x2927c8edfd61a618!8m2!3d3.1480677!4d101.708795!16s%2Fg%2F11w8dlp7nq!19sChIJpUvhDts3zDERGKZh_e3IJyk?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>756</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Manja KL</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>· $$$</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Manja+KL/data=!4m7!3m6!1s0x31cc49d5244b3c29:0x70a8f8e46b0f8b3!8m2!3d3.1506522!4d101.7042369!16s%2Fg%2F11c0rl4798!19sChIJKTxLJNVJzDERs_iwRo6PCgc?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1,033</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NADODI</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fine Dining</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>· Level 7A, Four Seasons Hotel, Jln Ampang</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/NADODI/data=!4m7!3m6!1s0x31cc37d0ae7fc969:0xe33db9e833919834!8m2!3d3.1578903!4d101.7136528!16s%2Fg%2F11cs9l_kkb!19sChIJacl_rtA3zDERNJiRM-i5PeM?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Raw (formerly Raw Kitchen Hall)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>· Ground Floor, 145, Jalan Tun H S Lee</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Raw+%28formerly+Raw+Kitchen+Hall%29/data=!4m7!3m6!1s0x31cc49c51fe45ee7:0x492bf01cca68078!8m2!3d3.1443312!4d101.6965673!16s%2Fg%2F11tcvj7l97!19sChIJ517kH8VJzDEReICmzAG_kgQ?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1,034</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Blackbyrd KL</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Fusion restaurant</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Blackbyrd+KL/data=!4m7!3m6!1s0x31cc37cfe103acf3:0x7b1e0b65463c933d!8m2!3d3.1547228!4d101.7183915!16s%2Fg%2F11c5rp5th6!19sChIJ86wD4c83zDERPZM8RmULHns?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1,756</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ZENZERO Restaurant &amp; Wine Bar</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>· Lot AG1 Amplewest@Menara 6 No, Jalan Puncak</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ZENZERO+Restaurant+%26+Wine+Bar/data=!4m7!3m6!1s0x31cc37d54fc97a65:0xc3b289bbe6473dc8!8m2!3d3.1518013!4d101.706316!16s%2Fg%2F11btsv0mk6!19sChIJZXrJT9U3zDERyD1H5ruJssM?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3,277</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1919 Restaurant KL</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>· $$</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/1919+Restaurant+KL/data=!4m7!3m6!1s0x31cc37da2fb0b047:0x76f50482b321a0f9!8m2!3d3.1619772!4d101.7131843!16s%2Fg%2F1hc2m5y9n!19sChIJR7CwL9o3zDER-aAhs4IE9XY?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2,168</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Bara On Six | Steakhouse and Bar</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bara+On+Six+%7C+Steakhouse+and+Bar/data=!4m7!3m6!1s0x31cc3734380c1bbb:0x4a0a117c161c85d7!8m2!3d3.1540149!4d101.7151013!16s%2Fg%2F11k9n7w8gh!19sChIJuxsMODQ3zDER14UcFnwRCko?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ATAS</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Malaysian</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Open · Closes 2:30 pm · Reopens 6 pm</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATAS/data=!4m7!3m6!1s0x31cc3785f571c251:0x4a1284e7c69d861a!8m2!3d3.1523671!4d101.7145106!16s%2Fg%2F11j1_j4p80!19sChIJUcJx9YU3zDERGoadxueEEko?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Mona Lisa Kitchen and Bar</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mona+Lisa+Kitchen+and+Bar/data=!4m7!3m6!1s0x31cc4982589df577:0x7af87fc5fca41678!8m2!3d3.1441002!4d101.6984204!16s%2Fg%2F11y57gh6sk!19sChIJd_WdWIJJzDEReBak_MV_-Ho?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BAAN26</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>· $$</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BAAN26/data=!4m7!3m6!1s0x31cc372bebf19c99:0x73d6d7ee7570e347!8m2!3d3.1478827!4d101.7076412!16s%2Fg%2F1tfm44ly!19sChIJmZzx6ys3zDERR-Nwde7X1nM?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1,077</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>The Chow Kit Kitchen &amp; Bar</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Malaysian</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/The+Chow+Kit+Kitchen+%26+Bar/data=!4m7!3m6!1s0x31cc492e41b936cb:0xe11f97b659c36067!8m2!3d3.1603398!4d101.6967391!16s%2Fg%2F11pwqcmqvh!19sChIJyza5QS5JzDERZ2DDWbaXH-E?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Monal Restaurant Kuala Lumpur</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Pakistani</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>· 84 &amp; 86, Jln Sultan Azlan Shah</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Monal+Restaurant+Kuala+Lumpur/data=!4m7!3m6!1s0x31cc49d423bee1fb:0xad117961e4505dc6!8m2!3d3.1692699!4d101.6956621!16s%2Fg%2F11lyxxqbbf!19sChIJ--G-I9RJzDERxl1Q5GF5Ea0?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>UMI Japanese Restaurant (Imperial Lexis KL)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Open · Closes 3 pm · Reopens 6 pm</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/UMI+Japanese+Restaurant+%28Imperial+Lexis+KL%29/data=!4m7!3m6!1s0x31cc37bcb8280713:0xcd4a9dd4b13c16a5!8m2!3d3.1528082!4d101.7163633!16s%2Fg%2F11y4xhzbjc!19sChIJEwcouLw3zDERpRY8sdSdSs0?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Beta KL</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Fine Dining</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Beta+KL/data=!4m7!3m6!1s0x31cc37d5b1353095:0x97a4b6414ea3bb29!8m2!3d3.1545842!4d101.7090979!16s%2Fg%2F11gfgm5xnc!19sChIJlTA1sdU3zDERKbujTkG2pJc?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1,330</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>The Dark Horse - Bar &amp; Grill</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>· $$</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>· Lot G-05, Life Centre, 20, Jln Sultan Ismail</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/The+Dark+Horse+-+Bar+%26+Grill/data=!4m7!3m6!1s0x31cc37eee1555169:0x9c2f427cb7dd2617!8m2!3d3.1539829!4d101.7086118!16s%2Fg%2F11p06wwv1q!19sChIJaVFV4e43zDERFybdt3xCL5w?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1,483</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Fuego at Troika Sky Dining</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>South American</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>· Level 23A Tower B, The Troika, 19, Persiaran KLCC</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Fuego+at+Troika+Sky+Dining/data=!4m7!3m6!1s0x31cc37d1d7fddcc3:0xfb3baf76fe660b25!8m2!3d3.158464!4d101.7181922!16s%2Fg%2F11b764q9yz!19sChIJw9z919E3zDERJQtm_navO_s?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>3,063</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PRIME , Le Méridien Kuala Lumpur</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Steak</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Open · Closes 3 pm · Reopens 6 pm</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PRIME+,+Le+M%C3%A9ridien+Kuala+Lumpur/data=!4m7!3m6!1s0x31cc49c05464fca5:0x8f55a48d79427608!8m2!3d3.1355924!4d101.6862869!16s%2Fg%2F1tv3l5gy!19sChIJpfxkVMBJzDERCHZCeY2kVY8?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>648</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Bijan Bar &amp; Restaurant</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Malaysian</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bijan+Bar+%26+Restaurant/data=!4m7!3m6!1s0x31cc49d5a4bb4585:0xdefcae21c2ee52ad!8m2!3d3.1484858!4d101.7059234!16s%2Fg%2F1tf55cvp!19sChIJhUW7pNVJzDERrVLuwiGu_N4?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2,925</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Mojo Restaurant &amp; Bar KL</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>· Asian Heritage Row, 42, Jalan Doraisamy</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mojo+Restaurant+%26+Bar+KL/data=!4m7!3m6!1s0x31cc482ee8e0f2bb:0x5ee8f0f33d7f6752!8m2!3d3.1580716!4d101.6994663!16s%2Fg%2F1tj3hkqc!19sChIJu_Lg6C5IzDERUmd_PfPw6F4?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>El Iberico</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>· Unit G-1, Seri 8, Lorong Ceylon</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/El+Iberico/data=!4m7!3m6!1s0x31cc362c7b6498fb:0x7fa334ffc1f516d2!8m2!3d3.1488315!4d101.707404!16s%2Fg%2F11g9q9j2mm!19sChIJ-5hkeyw2zDER0hb1wf80o38?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AQUA Restaurant &amp; Grill Bar</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Grill</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/AQUA+Restaurant+%26+Grill+Bar/data=!4m7!3m6!1s0x31cc37d40f870bf3:0x12089bc8b23f0c2e!8m2!3d3.1558094!4d101.7119611!16s%2Fg%2F11bv_dgl5k!19sChIJ8wuHD9Q3zDERLgw_ssibCBI?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>STYLE All-Day Dining</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>· STYLE All-Day Dining THE FACE Style, 1020, Jln Sultan Ismail</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/STYLE+All-Day+Dining/data=!4m7!3m6!1s0x31cc490021a2fe4b:0x263aa060529203e8!8m2!3d3.1583931!4d101.7047214!16s%2Fg%2F11vplmgsqd!19sChIJS_6iIQBJzDER6AOSUmCgOiY?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PAAN KL</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Pan Asian</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PAAN+KL/data=!4m7!3m6!1s0x31cc37bee842467f:0xcd0cdac1db81f00!8m2!3d3.1470593!4d101.7082083!16s%2Fg%2F11lc_2gdkd!19sChIJf0ZC6L43zDERAB-4HazN0Aw?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Cielo Rooftop - Dining and Lounge</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>· 23-01, 1D, Vida, 1D, Jalan Ceylon</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Cielo+Rooftop+-+Dining+and+Lounge/data=!4m7!3m6!1s0x31cc49d5863e4947:0x5c50c0938ecd61f1!8m2!3d3.1483939!4d101.7066102!16s%2Fg%2F11ggvxxt_m!19sChIJR0k-htVJzDER8WHNjpPAUFw?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1,190</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Dining In The Dark KL</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Fine Dining</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dining+In+The+Dark+KL/data=!4m7!3m6!1s0x31cc362a154f794f:0xe6083b3f0bc7d703!8m2!3d3.1475714!4d101.7082255!16s%2Fg%2F1jky94gyh!19sChIJT3lPFSo2zDERA9fHCz87COY?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1,125</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Sichuan Kitchen, Four Points By Sheraton Kuala Lumpur, City Centre</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Open · Closes 3 pm · Reopens 6 pm</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sichuan+Kitchen,+Four+Points+By+Sheraton+Kuala+Lumpur,+City+Centre/data=!4m7!3m6!1s0x31cc497493d7c139:0x61ca14868c143e97!8m2!3d3.1575192!4d101.70572!16s%2Fg%2F11l5pxy6jr!19sChIJOcHXk3RJzDERlz4UjIYUymE?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Barra Restaurant</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Barra+Restaurant/data=!4m7!3m6!1s0x31cc497a648d4cd7:0x60ed6f32bb8eda72!8m2!3d3.140819!4d101.6982015!16s%2Fg%2F11y1xqqf4k!19sChIJ10yNZHpJzDERctqOuzJv7WA?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Gardenman KL</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Family-friendly</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>· No A-0-8, Ground Floor, St Mary Place, 1, Jalan Tengah</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gardenman+KL/data=!4m7!3m6!1s0x31cc3798552cc141:0x704be496894123db!8m2!3d3.151903!4d101.7079466!16s%2Fg%2F11ng6r7kj_!19sChIJQcEsVZg3zDER2yNBiZbkS3A?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>TAZYEEN Arabic and Mughlai Cuisine</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>· TAZYEEN Arabic and Mughal Cuisine Adjacent to City Central Hotel, 82, Jalan Tun Sambanthan</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/TAZYEEN+Arabic+and+Mughlai+Cuisine/data=!4m7!3m6!1s0x31cc4919451e88e9:0xd9f15caa63c46d89!8m2!3d3.1332525!4d101.6883283!16s%2Fg%2F11p6h54ql0!19sChIJ6YgeRRlJzDERiW3EY6pc8dk?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1,258</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>De.Wan 1958 by Chef Wan</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>· $$$</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Open · Closes 3:30 pm · Reopens 6 pm</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/De.Wan+1958+by+Chef+Wan/data=!4m7!3m6!1s0x31cc37abff5d814d:0x33d182d10f54e2e8!8m2!3d3.1596253!4d101.7207488!16s%2Fg%2F11h0yfzsk6!19sChIJTYFd_6s3zDER6OJUD9GC0TM?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>7,843</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Bestow Restaurant</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bestow+Restaurant/data=!4m7!3m6!1s0x31cc373fc2947e6f:0x9dfa81b79735a928!8m2!3d3.1410521!4d101.7113701!16s%2Fg%2F11p56kmfm7!19sChIJb36Uwj83zDERKKk1l7eB-p0?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Malai Thai Cuisine</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>· $$</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>· Ground Floor, Menara Ample West, 6, Jalan P. Ramlee</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Malai+Thai+Cuisine/data=!4m7!3m6!1s0x31cc37d7fd9456cd:0x720f19583174ca41!8m2!3d3.1520599!4d101.706289!16s%2Fg%2F11f6cs4626!19sChIJzVaU_dc3zDERQcp0MVgZD3I?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1,745</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Indian Empire</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Indian</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Indian+Empire/data=!4m7!3m6!1s0x31cc37801ecd2465:0x27dbb263e9679a25!8m2!3d3.144694!4d101.7084864!16s%2Fg%2F11txdy5y0w!19sChIJZSTNHoA3zDERJZpn6WOy2yc?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>4,057</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Skillet KL</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Modern European</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>· Lot 1-01, Level 1, Menara Hap Seng, 3, Jalan P. Ramlee</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Skillet+KL/data=!4m7!3m6!1s0x31cc37d5b041771f:0x9b2787eebb03281!8m2!3d3.153023!4d101.7075119!16s%2Fg%2F11bc738wp8!19sChIJH3dBsNU3zDERgTKw6354sgk?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1,062</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Nipah at EQ</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Pan Asian</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Nipah+at+EQ/data=!4m7!3m6!1s0x31cc37d51df467bf:0x94a03a19165bba58!8m2!3d3.1528538!4d101.7098272!16s%2Fg%2F1tdxydgy!19sChIJv2f0HdU3zDERWLpbFhk6oJQ?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Khatulistiwa Skyline Dining</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Asian Fusion</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>· Level 10 &amp; Rooftop, Bintang Collectionz Hotel, 68, Jln Bukit Bintang</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Khatulistiwa+Skyline+Dining/data=!4m7!3m6!1s0x31cc379845ee64c7:0xe598bc7c415a7f62!8m2!3d3.1456593!4d101.7096316!16s%2Fg%2F11x2d8wl_t!19sChIJx2TuRZg3zDERYn9aQXy8mOU?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Gastro Sentral, Le Méridien Kuala Lumpur</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Bistro</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gastro+Sentral,+Le+M%C3%A9ridien+Kuala+Lumpur/data=!4m7!3m6!1s0x31cc49c0e75d30af:0xb0fe316a568c747b!8m2!3d3.1357629!4d101.6861724!16s%2Fg%2F12qg7tk9f!19sChIJrzBd58BJzDERe3SMVmox_rA?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Sabayon at EQ</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Modern European</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>· Level 51, EQ, Equatorial Plaza, Jln Sultan Ismail</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sabayon+at+EQ/data=!4m7!3m6!1s0x31cc49b80988066d:0x634fde62e87fa8cb!8m2!3d3.1529181!4d101.7097897!16s%2Fg%2F11h_g0tx93!19sChIJbQaICbhJzDERy6h_6GLeT2M?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>1,212</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Flock</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Buffet</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Open · Closes 2:30 pm · Reopens 6:30 pm</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Flock/data=!4m7!3m6!1s0x31cc37702c414dc1:0xba167d7a8a56b9b8!8m2!3d3.158464!4d101.7094092!16s%2Fg%2F11gv0nhzk6!19sChIJwU1BLHA3zDERuLlWinp9Fro?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>JWALA</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Fine Dining</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>· E - 2 - 01, Level 2, Block E, The Five, Kompleks Pejabat Damansara, 49, Jalan Dungun</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/JWALA/data=!4m7!3m6!1s0x31cc491fd66fea79:0x266da097b808f973!8m2!3d3.1510866!4d101.6643787!16s%2Fg%2F11sdsfbjqq!19sChIJeepv1h9JzDERc_kIuJegbSY?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>YEN, W Kuala Lumpur</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Open · Closes 2:30 pm · Reopens 6 pm</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/YEN,+W+Kuala+Lumpur/data=!4m7!3m6!1s0x31cc37d17996f781:0x7dba9699ef1ebb95!8m2!3d3.1584966!4d101.709397!16s%2Fg%2F11gv0v3s5k!19sChIJgfeWedE3zDERlbse75mWun0?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Sausage KL Cafe &amp; Deli</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>· G5 Holiday Place Hotel, Jln Ampang</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sausage+KL+Cafe+%26+Deli/data=!4m7!3m6!1s0x31cc375449a27ddd:0xf3ac77d1fa883cd1!8m2!3d3.159516!4d101.7266272!16s%2Fg%2F11f9cn394j!19sChIJ3X2iSVQ3zDER0TyI-tF3rPM?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Iketeru</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Japanese</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>· Level 8, Hilton Kuala Lumpur, 3, Jalan Stesen Sentral</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Iketeru/data=!4m7!3m6!1s0x31cc49c0ed174cb7:0xabacd06c6242dde0!8m2!3d3.1357422!4d101.6857772!16s%2Fg%2F1tf5yt3b!19sChIJt0wX7cBJzDER4N1CYmzQrKs?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Horizon Grill</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Grill</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>· Level 58, Banyan Tree, Horizon Grill |, 2, Jalan Conlay</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Horizon+Grill/data=!4m7!3m6!1s0x31cc362d6973efed:0x2abc3baa48ae873f!8m2!3d3.1504944!4d101.7137683!16s%2Fg%2F11ff2mkb7m!19sChIJ7e9zaS02zDERP4euSKo7vCo?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Restaurant Dominic</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Modern French</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Open · Closes 3 pm · Reopens 6 pm</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Restaurant+Dominic/data=!4m7!3m6!1s0x31cc482ee013b925:0x6caecd52262ef4b0!8m2!3d3.1585347!4d101.6995594!16s%2Fg%2F11bxfrxtdh!19sChIJJbkT4C5IzDERsPQuJlLNrmw?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>MANGO CAFE AND RESTAURANT</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MANGO+CAFE+AND+RESTAURANT/data=!4m7!3m6!1s0x31cc49fd2ed94885:0x95aa82d746d2cd3d!8m2!3d3.1441739!4d101.6955837!16s%2Fg%2F11vt1s2vj0!19sChIJhUjZLv1JzDERPc3SRteCqpU?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Wagyu Kappo Yoshida KL</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Japanese</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>· Unit 3-48, Level 48, 10, Persiaran KLCC</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Wagyu+Kappo+Yoshida+KL/data=!4m7!3m6!1s0x31cc37e204e4715b:0x32155554dec49ee2!8m2!3d3.1547291!4d101.7186463!16s%2Fg%2F11sbjvrd3p!19sChIJW3HkBOI3zDER4p7E3lRVFTI?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>M Grill • Malaysia</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Grill</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>· 2nd Floor, M Palace Hotel 97, Jalan Tuanku Abdul Rahman, Jalan Masjid India</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/M+Grill+%E2%80%A2+Malaysia/data=!4m7!3m6!1s0x31cc494d7db4c8ff:0x3fdaca5d0580e355!8m2!3d3.1532601!4d101.6967162!16s%2Fg%2F11vx2ch70g!19sChIJ_8i0fU1JzDERVeOABV3K2j8?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Sakanaya Umihiko</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Japanese</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>· Unit P1-16, Level 4 Lot 10 Shopping Centre, 50, Jln Sultan Ismail</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sakanaya+Umihiko/data=!4m7!3m6!1s0x31cc37abeba167f1:0xf92b9af69f9f8048!8m2!3d3.1466066!4d101.711819!16s%2Fg%2F11t142vjd2!19sChIJ8Weh66s3zDERSICfn_aaK_k?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>1,286</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Kampachi EQ</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Authentic Japanese</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Open · Closes 3 pm · Reopens 6 pm</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kampachi+EQ/data=!4m7!3m6!1s0x31cc49986e8b8ad5:0x7a0370a4832ec494!8m2!3d3.1530231!4d101.7098553!16s%2Fg%2F11fk4pmzl3!19sChIJ1YqLbphJzDERlMQug6RwA3o?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Pickle Dining</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pickle+Dining/data=!4m7!3m6!1s0x31cc4932f6a6a7f7:0xf527a47e1ed803c!8m2!3d3.1451316!4d101.6982042!16s%2Fg%2F11lct4bbbb!19sChIJ96em9jJJzDERPIDt4Ud6Ug8?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Positano Risto</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>· Block C1, Lot 2, Level G3, Publika Shopping Gallery, 1, Jln Dutamas 1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Positano+Risto/data=!4m7!3m6!1s0x31cc490d92f62f67:0x22253425012afa02!8m2!3d3.1715819!4d101.6645253!16s%2Fg%2F11gw34z544!19sChIJZy_2kg1JzDERAvoqASU0JSI?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2,783</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Canopy Lounge Rooftop Bar KL</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>· $$$</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Canopy+Lounge+Rooftop+Bar+KL/data=!4m7!3m6!1s0x31cc37d742b7518f:0x7a707623b7f172f8!8m2!3d3.1604538!4d101.7113188!16s%2Fg%2F11c2p5vbb4!19sChIJj1G3Qtc3zDER-HLxtyN2cHo?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>5,908</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Loo Loo Casual Dining Kuala Lumpur</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>· B2-07, Block B, Beside RHB Bank, Plaza Damas 3, 63, Jalan Sri Hartamas 1</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Loo+Loo+Casual+Dining+Kuala+Lumpur/data=!4m7!3m6!1s0x31cc4939ecaafc7d:0x95b56d07325357b2!8m2!3d3.1630576!4d101.6568805!16s%2Fg%2F11hg45nyfz!19sChIJffyq7DlJzDERsldTMgdttZU?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Rooftop 25 • Hilton Garden Inn Kuala Lumpur</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>· Level 25 of Hilton Garden Inn, South, 452, Jalan Tuanku Abdul Rahman</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rooftop+25+%E2%80%A2+Hilton+Garden+Inn+Kuala+Lumpur/data=!4m7!3m6!1s0x31cc492291e58de5:0x671dafb268e06b4b!8m2!3d3.163973!4d101.6984162!16s%2Fg%2F11nh4g5y51!19sChIJ5Y3lkSJJzDERS2vgaLKvHWc?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Yun House</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Cantonese</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Open · Closes 3 pm · Reopens 6 pm</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Yun+House/data=!4m7!3m6!1s0x31cc378c34681a69:0x65ebafb1bdc89d80!8m2!3d3.1579887!4d101.7136921!16s%2Fg%2F11f6fgdspc!19sChIJaRpoNIw3zDERgJ3IvbGv62U?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Bombay Palace Restaurant</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>· $$</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>· Life Centre, 20, Jln Sultan Ismail</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bombay+Palace+Restaurant/data=!4m7!3m6!1s0x31cc37d50b527201:0xda102edf8bf1235e!8m2!3d3.153707!4d101.70852!16s%2Fg%2F11b6v5w98z!19sChIJAXJSC9U3zDERXiPxi98uENo?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>1,345</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Chynna</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>· $$$$</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>· Lobby Level, Hilton Kuala Lumpur, 3, Jalan Stesen Sentral</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Chynna/data=!4m7!3m6!1s0x31cc49c0ebf6504b:0x55858672f4a1aa22!8m2!3d3.1355333!4d101.6861929!16s%2Fg%2F12qfkgng2!19sChIJS1D268BJzDERIqqh9HKGhVU?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Bombay Grand Indian Cuisine - Brickfield Branch</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Indian</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>· G-5, Sentral Suites, 248, Jalan Tun Sambanthan</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bombay+Grand+Indian+Cuisine+-+Brickfield+Branch/data=!4m7!3m6!1s0x31cc490073d5d8c9:0xf849d5404e84b500!8m2!3d3.1302128!4d101.6849219!16s%2Fg%2F11vyg1zwl8!19sChIJydjVcwBJzDERALWETkDVSfg?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>1,528</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Serena Brasserie</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Buffet</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>· InterContinental Kuala Lumpur, 165 Jalan Ampang</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Serena+Brasserie/data=!4m7!3m6!1s0x31cc37d021e87a19:0x1782875abca472e2!8m2!3d3.1596062!4d101.7179492!16s%2Fg%2F1tggl421!19sChIJGXroIdA3zDER4nKkvFqHghc?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Ishin Japanese Dining | KL</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>· $$$</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>· OFF, 202, Persiaran Klang, Batu 3¾, Jln Klang Lama, 58100 Kuala Lumpur3 3, 202 PERSIARAN KELANG, 4, Old Klang Rd</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ishin+Japanese+Dining+%7C+KL/data=!4m7!3m6!1s0x31cc4a24ae4fa579:0x73faca8997f1a874!8m2!3d3.1027691!4d101.6779089!16s%2Fg%2F1thxhkx6!19sChIJeaVPriRKzDERdKjxl4nK-nM?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>1,160</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>The Hungry Tapir</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Vegan</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/The+Hungry+Tapir/data=!4m7!3m6!1s0x31cc49d74aaae9e9:0xdb90dd4267f8b036!8m2!3d3.1417916!4d101.697829!16s%2Fg%2F11fr1524fd!19sChIJ6emqStdJzDERNrD4Z0LdkNs?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>1,778</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Shhhbuuuleee</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Asian Fusion</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Shhhbuuuleee/data=!4m7!3m6!1s0x31cc4989a1b099fb:0x5adb892f8231bb!8m2!3d3.1449098!4d101.6984315!16s%2Fg%2F11pdsl_v6s!19sChIJ-5mwoYlJzDERuzGCL4nbWgA?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Latest Recipe, Le Méridien Kuala Lumpur</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>· $$$</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Latest+Recipe,+Le+M%C3%A9ridien+Kuala+Lumpur/data=!4m7!3m6!1s0x31cc49c0dcbcf401:0xa431127b4418275b!8m2!3d3.1357095!4d101.6862487!16s%2Fg%2F113g330kb!19sChIJAfS83MBJzDERWycYRHsSMaQ?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Boardwalk</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Boardwalk/data=!4m7!3m6!1s0x31cc49c0ebdcb7ed:0xa9d6780f957fde0d!8m2!3d3.1352695!4d101.6862389!16s%2Fg%2F12qf68zvj!19sChIJ7bfc68BJzDERDd5_lQ941qk?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Gajaa at 8 Indian Restaurant Kuala Lumpur</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Modern Indian restaurant</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Open · Closes 2:30 pm · Reopens 6 pm</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gajaa+at+8+Indian+Restaurant+Kuala+Lumpur/data=!4m7!3m6!1s0x31cc4956558f72c9:0xddf9880cc95f35e4!8m2!3d3.1281272!4d101.6755757!16s%2Fg%2F11f6mjb_57!19sChIJyXKPVVZJzDER5DVfyQyI-d0?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>3,159</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Havana Dining Kuala Lumpur</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Fine Dining</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>· Roof Skypark Level 6, Nu Sentral</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Havana+Dining+Kuala+Lumpur/data=!4m7!3m6!1s0x31cc49274deeede7:0x89e40b5ee67ccce0!8m2!3d3.1334534!4d101.6870178!16s%2Fg%2F11fpr3h6kv!19sChIJ5-3uTSdJzDER4Mx85l4L5Ik?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Pampas Steakhouse at Old Malaya</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Steak</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pampas+Steakhouse+at+Old+Malaya/data=!4m7!3m6!1s0x31cc49d523d9e087:0x83af95a7bfa1e927!8m2!3d3.1505647!4d101.7042052!16s%2Fg%2F11cncfj__r!19sChIJh-DZI9VJzDERJ-mhv6eVr4M?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2,195</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Lai Foong Lala Noodles, Kuala Lumpur</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Chinese Noodles</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Lai+Foong+Lala+Noodles,+Kuala+Lumpur/data=!4m7!3m6!1s0x31cc49bc0ead513d:0x190158702c27d46a!8m2!3d3.1446077!4d101.6987433!16s%2Fg%2F11hkc_tq5m!19sChIJPVGtDrxJzDERatQnLHBYARk?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2,308</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>El Cerdo</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>· $$$</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>· 43 &amp; 45, Changkat Bukit Bintang</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/El+Cerdo/data=!4m7!3m6!1s0x31cc362a7555f7a5:0x52b87a4db9261706!8m2!3d3.1472361!4d101.7078781!16s%2Fg%2F1tjtfsdg!19sChIJpfdVdSo2zDERBhcmuU16uFI?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>1,444</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Al-Baik Di Bistro Restaurant</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Indian Muslim restaurant</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Al-Baik+Di+Bistro+Restaurant/data=!4m7!3m6!1s0x31cc49d1d0e391d5:0x5d60268368a9587f!8m2!3d3.1445632!4d101.6959181!16s%2Fg%2F11cs6kryd7!19sChIJ1ZHj0NFJzDERf1ipaIMmYF0?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>1,171</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>The Mesh, Four Points by Sheraton Kuala Lumpur, City Centre</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/The+Mesh,+Four+Points+by+Sheraton+Kuala+Lumpur,+City+Centre/data=!4m7!3m6!1s0x31cc49e3836e8c0b:0x64d8a7e14a37d6a!8m2!3d3.1575406!4d101.7057227!16s%2Fg%2F11y1lx7rz7!19sChIJC4xug-NJzDERan2jFH6KTQY?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Graze</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>· Level 5, 3, Jalan Stesen Sentral</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Graze/data=!4m7!3m6!1s0x31cc49c0e931eaed:0x4a2ce3970ded7bbb!8m2!3d3.1352695!4d101.6862389!16s%2Fg%2F12qfbbk4p!19sChIJ7eox6cBJzDERu3vtDZfjLEo?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Vasco's</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Buffet</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>· Level Lobby, 3, Jalan Stesen Sentral</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Vasco%27s/data=!4m7!3m6!1s0x31cc49c0eed464b5:0x2f0e84e5b734f61e!8m2!3d3.1355519!4d101.6859526!16s%2Fg%2F12qh81rl5!19sChIJtWTU7sBJzDERHvY0t-WEDi8?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Da Bao Restobar</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Gastropub</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Da+Bao+Restobar/data=!4m7!3m6!1s0x31cc4903862b9c21:0x7c20d1e8173da3b3!8m2!3d3.1414978!4d101.6978837!16s%2Fg%2F11j4nbqm86!19sChIJIZwrhgNJzDERs6M9F-jRIHw?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>830</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>The Silver Monkey</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Grill</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/The+Silver+Monkey/data=!4m7!3m6!1s0x31cc49cd68409e69:0x71b42f04b3d67e73!8m2!3d3.1525944!4d101.7057805!16s%2Fg%2F11vr9565_p!19sChIJaZ5AaM1JzDERc37WswQvtHE?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Entier French Dining</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Modern French</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>· Level 41, Alila Bangsar, 58, Jalan Ang Seng</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Entier+French+Dining/data=!4m7!3m6!1s0x31cc49940b03a20b:0xb917ca42af479ff0!8m2!3d3.128095!4d101.6803012!16s%2Fg%2F11hd1v3cvg!19sChIJC6IDC5RJzDER8J9Hr0LKF7k?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>1,489</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Yeast Bistronomy</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Yeast+Bistronomy/data=!4m7!3m6!1s0x31cc49980f48346b:0xbcb942fb39d90f09!8m2!3d3.1319167!4d101.6718287!16s%2Fg%2F12qfq3ng8!19sChIJazRID5hJzDERCQ_ZOftCubw?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2,510</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>TRACE Restaurant and Bar</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>· Level 40, Element Kuala Lumpur, Ilham Tower, 8, Jln Binjai</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/TRACE+Restaurant+and+Bar/data=!4m7!3m6!1s0x31cc37cfd75abb95:0x78655e1f812a7f03!8m2!3d3.1588889!4d101.7188889!16s%2Fg%2F11h08j3j9f!19sChIJlbta1883zDERA38qgR9eZXg?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Moghul Mahal Restaurant @ Menara KL</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Indian</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>· UG-06&amp;07, Upper Ground Floor Menara Kuala Lumpur No.2, Jalan Punchak, Off, Jalan P. Ramlee</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Moghul+Mahal+Restaurant+@+Menara+KL/data=!4m7!3m6!1s0x31cc49d553f0f3a3:0x276ca7689bb0465a!8m2!3d3.1529199!4d101.703507!16s%2Fg%2F1pzvbsdjc!19sChIJo_PwU9VJzDERWkawm2inbCc?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>919</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Le Petit Chef • Kuala Lumpur</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Le+Petit+Chef+%E2%80%A2+Kuala+Lumpur/data=!4m7!3m6!1s0x31cc37b1c32c47df:0x6406d6cb4e595413!8m2!3d3.153664!4d101.712256!16s%2Fg%2F11h5ryjzsr!19sChIJ30csw7E3zDERE1RZTsvWBmQ?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Chocha Foodstore</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>· $$$</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Chocha+Foodstore/data=!4m7!3m6!1s0x31cc49da88fa1169:0x29e4c525bec53a5c!8m2!3d3.1408204!4d101.6982343!16s%2Fg%2F11c46dtlbw!19sChIJaRH6iNpJzDERXDrFviXF5Ck?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>921</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Fritz</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Modern European</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>· Level 23A Tower B, The Troika, 19, Persiaran KLCC</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Fritz/data=!4m7!3m6!1s0x31cc362be8c7ece5:0x357d401017639dcc!8m2!3d3.1581273!4d101.7180557!16s%2Fg%2F11f3v1hww4!19sChIJ5ezH6Cs2zDERzJ1jFxBAfTU?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Molina</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Fine Dining</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>· Level 51, THE FACE Style, 1020, Jln Sultan Ismail</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Molina/data=!4m7!3m6!1s0x31cc4945002725c1:0x29d167acc06d95a4!8m2!3d3.158689!4d101.7040495!16s%2Fg%2F11vz5bcxtt!19sChIJwSUnAEVJzDERpJVtwKxn0Sk?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Strato at Troika Sky Dining</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>· $$$</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>· Level 23A Tower B, The Troika, 19, Persiaran KLCC</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Strato+at+Troika+Sky+Dining/data=!4m7!3m6!1s0x31cc37d1d7b820e7:0x67b9dbf8a5c0b487!8m2!3d3.1581144!4d101.7179393!16s%2Fg%2F12qg460ll!19sChIJ5yC419E3zDERh7TApfjbuWc?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Mr. Chew's Chino Latino Bar</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Latin American</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>· Level 23A Tower B, The Troika, 19, Persiaran KLCC</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mr.+Chew%27s+Chino+Latino+Bar/data=!4m7!3m6!1s0x31cc362be8e190e5:0x399775ac6d86ac!8m2!3d3.1581273!4d101.7180557!16s%2Fg%2F11d_8dnxf0!19sChIJ5ZDh6Cs2zDERrIZtrHWXOQA?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Roofino Skydining</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Roofino+Skydining/data=!4m7!3m6!1s0x31cc37db29c20085:0xd95e4143ba318419!8m2!3d3.1633844!4d101.7177893!16s%2Fg%2F11c20pq32p!19sChIJhQDCKds3zDERGYQxukNBXtk?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>1,249</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Contango</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>· $$$</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Contango/data=!4m7!3m6!1s0x31cc49c5aca40177:0xba91d00b3dea7946!8m2!3d3.1383609!4d101.6916438!16s%2Fg%2F12qgffms4!19sChIJdwGkrMVJzDERRnnqPQvQkbo?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>1,461</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Shang Palace • Shangri-La Hotel • Kuala Lumpur</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Open · Closes 2:30 pm · Reopens 6:30 pm</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Shang+Palace+%E2%80%A2+Shangri-La+Hotel+%E2%80%A2+Kuala+Lumpur/data=!4m7!3m6!1s0x31cc482a72b1a05f:0x14e532a4cc389ae!8m2!3d3.15421!4d101.70627!16s%2Fg%2F1tgyz2dp!19sChIJX6CxcipIzDERronDTCpTTgE?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Sky Restaurant</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>· 2nd Floor, 29B, Jalan Tun Tan Cheng Lock</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sky+Restaurant/data=!4m7!3m6!1s0x31cc49d10ad22799:0x98b2cb53bf93c363!8m2!3d3.1452678!4d101.6984311!16s%2Fg%2F1q62dt4lp!19sChIJmSfSCtFJzDERY8OTv1PLspg?authuser=0&amp;hl=en&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
